--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2493.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2493.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.444700976631356</v>
+        <v>1.217190146446228</v>
       </c>
       <c r="B1">
-        <v>3.694999252973513</v>
+        <v>0.9544359445571899</v>
       </c>
       <c r="C1">
-        <v>4.373092270811636</v>
+        <v>4.18715238571167</v>
       </c>
       <c r="D1">
-        <v>3.095210935439157</v>
+        <v>2.638900756835938</v>
       </c>
       <c r="E1">
-        <v>2.524025557776867</v>
+        <v>0.770750880241394</v>
       </c>
     </row>
   </sheetData>
